--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.663483666666666</v>
+        <v>6.400771666666667</v>
       </c>
       <c r="H2">
-        <v>28.990451</v>
+        <v>19.202315</v>
       </c>
       <c r="I2">
-        <v>0.4172798466714015</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="J2">
-        <v>0.4172798466714016</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.212188333333334</v>
+        <v>1.137783333333333</v>
       </c>
       <c r="N2">
-        <v>6.636565000000001</v>
+        <v>3.41335</v>
       </c>
       <c r="O2">
-        <v>0.06691893508610255</v>
+        <v>0.02543039699931523</v>
       </c>
       <c r="P2">
-        <v>0.06691893508610255</v>
+        <v>0.02543039699931523</v>
       </c>
       <c r="Q2">
-        <v>21.37744582675722</v>
+        <v>7.282691322805556</v>
       </c>
       <c r="R2">
-        <v>192.397012440815</v>
+        <v>65.54422190525001</v>
       </c>
       <c r="S2">
-        <v>0.02792392297214234</v>
+        <v>0.01074782945346945</v>
       </c>
       <c r="T2">
-        <v>0.02792392297214235</v>
+        <v>0.01074782945346945</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.663483666666666</v>
+        <v>6.400771666666667</v>
       </c>
       <c r="H3">
-        <v>28.990451</v>
+        <v>19.202315</v>
       </c>
       <c r="I3">
-        <v>0.4172798466714015</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="J3">
-        <v>0.4172798466714016</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>46.344539</v>
       </c>
       <c r="O3">
-        <v>0.4673090969404124</v>
+        <v>0.3452795715412271</v>
       </c>
       <c r="P3">
-        <v>0.4673090969404123</v>
+        <v>0.345279571541227</v>
       </c>
       <c r="Q3">
-        <v>149.2832318885654</v>
+        <v>98.88027071197612</v>
       </c>
       <c r="R3">
-        <v>1343.549086997089</v>
+        <v>889.9224364077851</v>
       </c>
       <c r="S3">
-        <v>0.1949986683194464</v>
+        <v>0.1459279597086919</v>
       </c>
       <c r="T3">
-        <v>0.1949986683194464</v>
+        <v>0.1459279597086919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.663483666666666</v>
+        <v>6.400771666666667</v>
       </c>
       <c r="H4">
-        <v>28.990451</v>
+        <v>19.202315</v>
       </c>
       <c r="I4">
-        <v>0.4172798466714015</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="J4">
-        <v>0.4172798466714016</v>
+        <v>0.4226371084084476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.39736566666667</v>
+        <v>28.15511333333333</v>
       </c>
       <c r="N4">
-        <v>46.192097</v>
+        <v>84.46534</v>
       </c>
       <c r="O4">
-        <v>0.4657719679734851</v>
+        <v>0.6292900314594577</v>
       </c>
       <c r="P4">
-        <v>0.4657719679734851</v>
+        <v>0.6292900314594577</v>
       </c>
       <c r="Q4">
-        <v>148.7921916295275</v>
+        <v>180.2144516957889</v>
       </c>
       <c r="R4">
-        <v>1339.129724665747</v>
+        <v>1621.9300652621</v>
       </c>
       <c r="S4">
-        <v>0.1943572553798128</v>
+        <v>0.2659613192462862</v>
       </c>
       <c r="T4">
-        <v>0.1943572553798128</v>
+        <v>0.2659613192462862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>15.892693</v>
       </c>
       <c r="I5">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="J5">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.212188333333334</v>
+        <v>1.137783333333333</v>
       </c>
       <c r="N5">
-        <v>6.636565000000001</v>
+        <v>3.41335</v>
       </c>
       <c r="O5">
-        <v>0.06691893508610255</v>
+        <v>0.02543039699931523</v>
       </c>
       <c r="P5">
-        <v>0.06691893508610255</v>
+        <v>0.02543039699931523</v>
       </c>
       <c r="Q5">
-        <v>11.71921001328278</v>
+        <v>6.027480405727778</v>
       </c>
       <c r="R5">
-        <v>105.472890119545</v>
+        <v>54.24732365155001</v>
       </c>
       <c r="S5">
-        <v>0.01530801763490695</v>
+        <v>0.00889538339103112</v>
       </c>
       <c r="T5">
-        <v>0.01530801763490695</v>
+        <v>0.00889538339103112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>15.892693</v>
       </c>
       <c r="I6">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="J6">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>46.344539</v>
       </c>
       <c r="O6">
-        <v>0.4673090969404124</v>
+        <v>0.3452795715412271</v>
       </c>
       <c r="P6">
-        <v>0.4673090969404123</v>
+        <v>0.345279571541227</v>
       </c>
       <c r="Q6">
         <v>81.83772561705857</v>
@@ -818,10 +818,10 @@
         <v>736.539530553527</v>
       </c>
       <c r="S6">
-        <v>0.1068991293377874</v>
+        <v>0.1207764930304815</v>
       </c>
       <c r="T6">
-        <v>0.1068991293377874</v>
+        <v>0.1207764930304815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>15.892693</v>
       </c>
       <c r="I7">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="J7">
-        <v>0.2287546509102482</v>
+        <v>0.3497933355610079</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.39736566666667</v>
+        <v>28.15511333333333</v>
       </c>
       <c r="N7">
-        <v>46.192097</v>
+        <v>84.46534</v>
       </c>
       <c r="O7">
-        <v>0.4657719679734851</v>
+        <v>0.6292900314594577</v>
       </c>
       <c r="P7">
-        <v>0.4657719679734851</v>
+        <v>0.6292900314594577</v>
       </c>
       <c r="Q7">
-        <v>81.56853518302457</v>
+        <v>149.1535241956244</v>
       </c>
       <c r="R7">
-        <v>734.1168166472211</v>
+        <v>1342.38171776062</v>
       </c>
       <c r="S7">
-        <v>0.1065475039375539</v>
+        <v>0.2201214591394954</v>
       </c>
       <c r="T7">
-        <v>0.1065475039375539</v>
+        <v>0.2201214591394954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.197232333333334</v>
+        <v>3.446504666666667</v>
       </c>
       <c r="H8">
-        <v>24.591697</v>
+        <v>10.339514</v>
       </c>
       <c r="I8">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305444</v>
       </c>
       <c r="J8">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305443</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.212188333333334</v>
+        <v>1.137783333333333</v>
       </c>
       <c r="N8">
-        <v>6.636565000000001</v>
+        <v>3.41335</v>
       </c>
       <c r="O8">
-        <v>0.06691893508610255</v>
+        <v>0.02543039699931523</v>
       </c>
       <c r="P8">
-        <v>0.06691893508610255</v>
+        <v>0.02543039699931523</v>
       </c>
       <c r="Q8">
-        <v>18.13382173342278</v>
+        <v>3.92137556798889</v>
       </c>
       <c r="R8">
-        <v>163.204395600805</v>
+        <v>35.29238011190001</v>
       </c>
       <c r="S8">
-        <v>0.02368699447905326</v>
+        <v>0.005787184154814653</v>
       </c>
       <c r="T8">
-        <v>0.02368699447905326</v>
+        <v>0.005787184154814652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.197232333333334</v>
+        <v>3.446504666666667</v>
       </c>
       <c r="H9">
-        <v>24.591697</v>
+        <v>10.339514</v>
       </c>
       <c r="I9">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305444</v>
       </c>
       <c r="J9">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305443</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>46.344539</v>
       </c>
       <c r="O9">
-        <v>0.4673090969404124</v>
+        <v>0.3452795715412271</v>
       </c>
       <c r="P9">
-        <v>0.4673090969404123</v>
+        <v>0.345279571541227</v>
       </c>
       <c r="Q9">
-        <v>126.6323178547426</v>
+        <v>53.24222331267178</v>
       </c>
       <c r="R9">
-        <v>1139.690860692683</v>
+        <v>479.180009814046</v>
       </c>
       <c r="S9">
-        <v>0.1654112992831786</v>
+        <v>0.07857511880205362</v>
       </c>
       <c r="T9">
-        <v>0.1654112992831786</v>
+        <v>0.0785751188020536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.197232333333334</v>
+        <v>3.446504666666667</v>
       </c>
       <c r="H10">
-        <v>24.591697</v>
+        <v>10.339514</v>
       </c>
       <c r="I10">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305444</v>
       </c>
       <c r="J10">
-        <v>0.3539655024183503</v>
+        <v>0.2275695560305443</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.39736566666667</v>
+        <v>28.15511333333333</v>
       </c>
       <c r="N10">
-        <v>46.192097</v>
+        <v>84.46534</v>
       </c>
       <c r="O10">
-        <v>0.4657719679734851</v>
+        <v>0.6292900314594577</v>
       </c>
       <c r="P10">
-        <v>0.4657719679734851</v>
+        <v>0.6292900314594577</v>
       </c>
       <c r="Q10">
-        <v>126.2157836909566</v>
+        <v>97.03672949386224</v>
       </c>
       <c r="R10">
-        <v>1135.942053218609</v>
+        <v>873.3305654447601</v>
       </c>
       <c r="S10">
-        <v>0.1648672086561184</v>
+        <v>0.1432072530736761</v>
       </c>
       <c r="T10">
-        <v>0.1648672086561184</v>
+        <v>0.1432072530736761</v>
       </c>
     </row>
   </sheetData>
